--- a/DataArchive.xlsx
+++ b/DataArchive.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="01162024" sheetId="1" r:id="rId1"/>
+    <sheet name="01242024-0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>d</t>
   </si>
@@ -28,52 +28,64 @@
     <t>reasoning</t>
   </si>
   <si>
-    <t>The text does not provide any indication of the age of the person. Therefore, it is impossible to predict the age based solely on the given information.</t>
-  </si>
-  <si>
-    <t>The text describes a scenario where the person is going to school and encounters cats following them. The use of contractions like 'didn't' and 'don't' suggests a more modern and informal style of writing. Based on these factors, the predicted age of the text appears to be younger, possibly teenage or early 20s.</t>
-  </si>
-  <si>
-    <t>The text talks about observing cats and feeling like a rollercoaster. This suggests that the author may be describing a playful and energetic experience. Based on this, I predict the age to be relatively young.</t>
-  </si>
-  <si>
-    <t>The text does not provide any information about the age of the speaker. Therefore, it is not possible to accurately predict the age.</t>
-  </si>
-  <si>
-    <t>The text mentions a classroom and a student named Zane, suggesting that it is a conversation between a teacher and a student. Based on the language used and the mention of catnip, it is likely that the text is portraying a younger child. Therefore, the predicted age would be in the range of 5-10 years.</t>
-  </si>
-  <si>
-    <t>The text includes phrases like 'during class' and 'Mrs. Miller', suggesting that it takes place in a school setting. The exclamation 'Nooooooo!' also implies a younger age. Overall, the language and context indicate that the age of the text is likely to be in the range of 10-13 years.</t>
-  </si>
-  <si>
-    <t>The text does not provide any specific information about the age of the text. Therefore, the predicted age is not determinable.</t>
-  </si>
-  <si>
-    <t>The text mentions a character named Cade who is described as being obsessed with cats and finding them cute. This suggests that Cade is likely a child or young teenager who values and enjoys the company of animals.</t>
-  </si>
-  <si>
-    <t>The text does not provide any explicit information about the age of the narrator or any other characters.</t>
-  </si>
-  <si>
-    <t>The text contains dialogues and a mention of a recess bell ringing, indicating that it might be a conversation between students in a school setting. This suggests that the age of the text is likely to be that of school-aged children, which is typically between 6 to 18 years old.</t>
-  </si>
-  <si>
-    <t>The text does not provide any information about the age of the person mentioned.</t>
-  </si>
-  <si>
-    <t>The text does not provide any specific information about the age of the person or the cat. Hence, it is not possible to accurately predict the age.</t>
-  </si>
-  <si>
-    <t>The text does not provide any clues about the age of the person mentioned. Hence, it is difficult to predict the age accurately.</t>
-  </si>
-  <si>
-    <t>The text mentions going on a field trip and learning about wildlife, making a budget, and creating a study guide. These activities indicate that the text is likely written for students in a school setting, possibly middle school or high school age.</t>
-  </si>
-  <si>
-    <t>The text mentions a fund raiser for a field trip and mentions parents chipping in their time and money. This indicates that the text is likely written by a teacher or a student involved in organizing a field trip. Based on the language used and the reference to Walt Disney World, it can be inferred that the text is most likely written by a middle school or high school student rather than an adult.</t>
-  </si>
-  <si>
-    <t>The text talks about students, education, and wildlife conservation which indicates that it is related to school or educational activities. This suggests that the text might be written by a teacher or someone involved in organizing educational trips.</t>
+    <t>The text does not contain any specific references to age or life experiences. It is a vague and unrelated statement, making it difficult to determine the age accurately.</t>
+  </si>
+  <si>
+    <t>The text is a simple expression of laughter (wkwkwk) and the phrase 'what a joke', which indicates a sarcastic or humorous tone. This type of casual language is often used by younger individuals, suggesting a younger age.</t>
+  </si>
+  <si>
+    <t>The text contains informal words like 'PC' and 'leave', suggesting a younger age. However, without any explicit age references, it is difficult to make an accurate prediction.</t>
+  </si>
+  <si>
+    <t>The text is very short and does not contain any specific content related to age.</t>
+  </si>
+  <si>
+    <t>The provided text does not contain any information that can be used to predict the age. It is a wedding teaser concept using a song, which does not provide any clues about the age of the author.</t>
+  </si>
+  <si>
+    <t>The text does not provide any information or context that can be used to predict the age.</t>
+  </si>
+  <si>
+    <t>The text is short and does not provide much information to accurately predict the age.</t>
+  </si>
+  <si>
+    <t>The text does not contain any specific information about age, but the mention of feeling nervous suggests that the person is relatively young and possibly experiencing something new or unfamiliar.</t>
+  </si>
+  <si>
+    <t>The text is very short and does not provide much information to determine the age accurately. However, the use of informal language ('I'm', 'so', 'nervous') suggests that the author is likely to be quite young.</t>
+  </si>
+  <si>
+    <t>This text does not contain any specific age-related information or context. It is a general statement about accepting the past. Therefore, it is difficult to determine the age of the author based on this text.</t>
+  </si>
+  <si>
+    <t>The text contains references to school, parents, and anger, which are indicative of a younger age. The usage of informal language and swearing also suggests a younger age. Therefore, the predicted age is around 16.</t>
+  </si>
+  <si>
+    <t>The text contains the phrase 'I swear' which indicates possible frustration or annoyance. This is a common expression used by younger individuals. Additionally, the word 'restless' suggests a sense of restlessness or impatience which is often associated with younger age groups.</t>
+  </si>
+  <si>
+    <t>The text does not contain any specific references to age or life experiences. It is a general question about anxiety and sleep patterns. Therefore, it is difficult to predict the age.</t>
+  </si>
+  <si>
+    <t>The text has informal language such as contractions (e.g., That&amp;apos;s), indicating a younger age. The mention of snacking and being restless or having something on the mind suggests a teenager or younger age group.</t>
+  </si>
+  <si>
+    <t>The text does not provide any relevant information about age. It only expresses worry without any reference to specific life events or experiences. Therefore, it is not possible to predict the age based on this text.</t>
+  </si>
+  <si>
+    <t>The text provides a general statement about taking care of oneself and mentions anxiety. It does not contain any specific references to age or life experiences. Therefore, it is difficult to accurately predict the age based on this text alone.</t>
+  </si>
+  <si>
+    <t>The text contains references to being in class 12 and preparations for something called SM. These are commonly associated with students in high school or college. The text also mentions feeling restless and worried, which are emotions often associated with younger individuals. Overall, the language and content suggest a younger age group.</t>
+  </si>
+  <si>
+    <t>The text contains references to school and parents, as well as usage of swearing and anger words. These are important features that indicate a younger age.</t>
+  </si>
+  <si>
+    <t>The text mentions feeling anxious and having trouble sleeping. This indicates a level of stress and worry, which is commonly associated with younger individuals. However, the use of emojis and informal language suggests a younger age as well.</t>
+  </si>
+  <si>
+    <t>The text mentions being nervous at night, indicating some level of anxiety or anticipation. This could be more common in younger individuals who tend to experience more intense emotions. Therefore, the predicted age is younger.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,13 +439,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -441,13 +453,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -455,13 +467,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -469,13 +481,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -483,13 +495,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -497,13 +509,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -511,13 +523,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -525,13 +537,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -539,13 +551,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -553,13 +565,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -567,13 +579,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -581,13 +593,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -595,13 +607,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -609,13 +621,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -623,13 +635,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -637,16 +649,72 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>26</v>
+        <v>-13</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataArchive.xlsx
+++ b/DataArchive.xlsx
@@ -7,85 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="01242024-0" sheetId="1" r:id="rId1"/>
+    <sheet name="01282024-0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>d</t>
+    <t>age</t>
   </si>
   <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>reasoning</t>
-  </si>
-  <si>
-    <t>The text does not contain any specific references to age or life experiences. It is a vague and unrelated statement, making it difficult to determine the age accurately.</t>
-  </si>
-  <si>
-    <t>The text is a simple expression of laughter (wkwkwk) and the phrase 'what a joke', which indicates a sarcastic or humorous tone. This type of casual language is often used by younger individuals, suggesting a younger age.</t>
-  </si>
-  <si>
-    <t>The text contains informal words like 'PC' and 'leave', suggesting a younger age. However, without any explicit age references, it is difficult to make an accurate prediction.</t>
-  </si>
-  <si>
-    <t>The text is very short and does not contain any specific content related to age.</t>
-  </si>
-  <si>
-    <t>The provided text does not contain any information that can be used to predict the age. It is a wedding teaser concept using a song, which does not provide any clues about the age of the author.</t>
-  </si>
-  <si>
-    <t>The text does not provide any information or context that can be used to predict the age.</t>
-  </si>
-  <si>
-    <t>The text is short and does not provide much information to accurately predict the age.</t>
-  </si>
-  <si>
-    <t>The text does not contain any specific information about age, but the mention of feeling nervous suggests that the person is relatively young and possibly experiencing something new or unfamiliar.</t>
-  </si>
-  <si>
-    <t>The text is very short and does not provide much information to determine the age accurately. However, the use of informal language ('I'm', 'so', 'nervous') suggests that the author is likely to be quite young.</t>
-  </si>
-  <si>
-    <t>This text does not contain any specific age-related information or context. It is a general statement about accepting the past. Therefore, it is difficult to determine the age of the author based on this text.</t>
-  </si>
-  <si>
-    <t>The text contains references to school, parents, and anger, which are indicative of a younger age. The usage of informal language and swearing also suggests a younger age. Therefore, the predicted age is around 16.</t>
-  </si>
-  <si>
-    <t>The text contains the phrase 'I swear' which indicates possible frustration or annoyance. This is a common expression used by younger individuals. Additionally, the word 'restless' suggests a sense of restlessness or impatience which is often associated with younger age groups.</t>
-  </si>
-  <si>
-    <t>The text does not contain any specific references to age or life experiences. It is a general question about anxiety and sleep patterns. Therefore, it is difficult to predict the age.</t>
-  </si>
-  <si>
-    <t>The text has informal language such as contractions (e.g., That&amp;apos;s), indicating a younger age. The mention of snacking and being restless or having something on the mind suggests a teenager or younger age group.</t>
-  </si>
-  <si>
-    <t>The text does not provide any relevant information about age. It only expresses worry without any reference to specific life events or experiences. Therefore, it is not possible to predict the age based on this text.</t>
-  </si>
-  <si>
-    <t>The text provides a general statement about taking care of oneself and mentions anxiety. It does not contain any specific references to age or life experiences. Therefore, it is difficult to accurately predict the age based on this text alone.</t>
-  </si>
-  <si>
-    <t>The text contains references to being in class 12 and preparations for something called SM. These are commonly associated with students in high school or college. The text also mentions feeling restless and worried, which are emotions often associated with younger individuals. Overall, the language and content suggest a younger age group.</t>
-  </si>
-  <si>
-    <t>The text contains references to school and parents, as well as usage of swearing and anger words. These are important features that indicate a younger age.</t>
-  </si>
-  <si>
-    <t>The text mentions feeling anxious and having trouble sleeping. This indicates a level of stress and worry, which is commonly associated with younger individuals. However, the use of emojis and informal language suggests a younger age as well.</t>
-  </si>
-  <si>
-    <t>The text mentions being nervous at night, indicating some level of anxiety or anticipation. This could be more common in younger individuals who tend to experience more intense emotions. Therefore, the predicted age is younger.</t>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -417,304 +351,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>-13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>-13</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>-13</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DataArchive.xlsx
+++ b/DataArchive.xlsx
@@ -7,19 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="01282024-0" sheetId="1" r:id="rId1"/>
+    <sheet name="02012024-0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>age</t>
+    <t>d</t>
   </si>
   <si>
-    <t>length</t>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>ptype</t>
   </si>
 </sst>
 </file>
@@ -351,178 +357,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>-11</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7">
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>-2</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>60</v>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>-2</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>-1</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>-1</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>-2</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>-2</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>-2</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>-3</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
